--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>User Name</t>
   </si>
@@ -96,16 +96,247 @@
     <t>abc</t>
   </si>
   <si>
-    <t>Page Title</t>
-  </si>
-  <si>
     <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/inventory.html</t>
+  </si>
+  <si>
+    <t>//div[@class='bm-burger-button']</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Allitem</t>
+  </si>
+  <si>
+    <t>//a[@id='logout_sidebar_link']</t>
+  </si>
+  <si>
+    <t>//a[@id = 'about_sidebar_link']</t>
+  </si>
+  <si>
+    <t>//a[@id = 'inventory_sidebar_link']</t>
+  </si>
+  <si>
+    <t>Pagetitle</t>
+  </si>
+  <si>
+    <t>//span[@class = 'title']</t>
+  </si>
+  <si>
+    <t>Item Link</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Item price</t>
+  </si>
+  <si>
+    <t>//a[@id ='%s']</t>
+  </si>
+  <si>
+    <t>//a[@id ='%s']/div</t>
+  </si>
+  <si>
+    <t>//a[@id ='%s']/following-sibling::div</t>
+  </si>
+  <si>
+    <t>//a[@id='%s']/parent::div/following-sibling::div/div[@class='inventory_item_price']</t>
+  </si>
+  <si>
+    <t>Item Detail Title</t>
+  </si>
+  <si>
+    <t>Item Detail Description</t>
+  </si>
+  <si>
+    <t>Item Detail Price</t>
+  </si>
+  <si>
+    <t>BackTo</t>
+  </si>
+  <si>
+    <t>Badge Link</t>
+  </si>
+  <si>
+    <t>Badge Number</t>
+  </si>
+  <si>
+    <t>BuyItem</t>
+  </si>
+  <si>
+    <t>Buy Name 1</t>
+  </si>
+  <si>
+    <t>Buy Price 1</t>
+  </si>
+  <si>
+    <t>Check Out</t>
+  </si>
+  <si>
+    <t>Continue Button</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Complete Header</t>
+  </si>
+  <si>
+    <t>//a[@class='shopping_cart_link']</t>
+  </si>
+  <si>
+    <t>//span[@class='shopping_cart_badge']</t>
+  </si>
+  <si>
+    <t>//button[contains (@name,'%s')]</t>
+  </si>
+  <si>
+    <t>//div[@class='inventory_item_name']</t>
+  </si>
+  <si>
+    <t>//div[@class='inventory_item_price']</t>
+  </si>
+  <si>
+    <t>//button[@id='checkout']</t>
+  </si>
+  <si>
+    <t>//input[@id='continue']</t>
+  </si>
+  <si>
+    <t>//div[@class='summary_total_label']</t>
+  </si>
+  <si>
+    <t>//button[@id='finish']</t>
+  </si>
+  <si>
+    <t>//h2[@class='complete-header']</t>
+  </si>
+  <si>
+    <t>//div[contains (@class,'name large_size')]</t>
+  </si>
+  <si>
+    <t>//div[contains (@class,'desc large_size')]</t>
+  </si>
+  <si>
+    <t>//button[@id = 'back-to-products']</t>
+  </si>
+  <si>
+    <t>//div[@class ='inventory_details_price']</t>
+  </si>
+  <si>
+    <t>item_0_title_link</t>
+  </si>
+  <si>
+    <t>item_1_title_link</t>
+  </si>
+  <si>
+    <t>item_2_title_link</t>
+  </si>
+  <si>
+    <t>item_3_title_link</t>
+  </si>
+  <si>
+    <t>item_4_title_link</t>
+  </si>
+  <si>
+    <t>item_5_title_link</t>
+  </si>
+  <si>
+    <t>Title Link Item</t>
+  </si>
+  <si>
+    <t>Image Link Item</t>
+  </si>
+  <si>
+    <t>item_0_img_link</t>
+  </si>
+  <si>
+    <t>item_1_img_link</t>
+  </si>
+  <si>
+    <t>item_2_img_link</t>
+  </si>
+  <si>
+    <t>item_3_img_link</t>
+  </si>
+  <si>
+    <t>item_4_img_link</t>
+  </si>
+  <si>
+    <t>item_5_img_link</t>
+  </si>
+  <si>
+    <t>Item Price</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bike Light</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bolt T-Shirt</t>
+  </si>
+  <si>
+    <t>Sauce Labs Onesie</t>
+  </si>
+  <si>
+    <t>Test.allTheThings() T-Shirt (Red)</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>Sauce Labs Fleece Jacket</t>
+  </si>
+  <si>
+    <t>A red light isn't the desired state in testing but it sure helps when riding your bike at night. Water-resistant with 3 lighting modes, 1 AAA battery included.</t>
+  </si>
+  <si>
+    <t>Get your testing superhero on with the Sauce Labs bolt T-shirt. From American Apparel, 100% ringspun combed cotton, heather gray with red bolt.</t>
+  </si>
+  <si>
+    <t>Rib snap infant onesie for the junior automation engineer in development. Reinforced 3-snap bottom closure, two-needle hemmed sleeved and bottom won't unravel.</t>
+  </si>
+  <si>
+    <t>This classic Sauce Labs t-shirt is perfect to wear when cozying up to your keyboard to automate a few tests. Super-soft and comfy ringspun combed cotton.</t>
+  </si>
+  <si>
+    <t>carry.allTheThings() with the sleek, streamlined Sly Pack that melds uncompromising style with unequaled laptop and tablet protection.</t>
+  </si>
+  <si>
+    <t>It's not every day that you come across a midweight quarter-zip fleece jacket capable of handling everything from a relaxing day outdoors to a busy day at the office.</t>
+  </si>
+  <si>
+    <t>Text Verify</t>
+  </si>
+  <si>
+    <t>All Items</t>
+  </si>
+  <si>
+    <t>about</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,13 +375,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -460,7 +694,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,7 +720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -496,11 +730,11 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -509,6 +743,9 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -542,25 +779,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.36328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>27</v>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -570,64 +934,249 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="46.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.08984375" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="46.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>User Name</t>
   </si>
@@ -328,15 +328,27 @@
   </si>
   <si>
     <t>about</t>
+  </si>
+  <si>
+    <t>$9.99</t>
+  </si>
+  <si>
+    <t>$15.99</t>
+  </si>
+  <si>
+    <t>$7.99</t>
+  </si>
+  <si>
+    <t>$29.99</t>
+  </si>
+  <si>
+    <t>$49.99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,10 +392,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -730,7 +742,7 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -781,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -826,8 +838,8 @@
       <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="2">
-        <v>9.99</v>
+      <c r="D2" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>89</v>
@@ -846,8 +858,8 @@
       <c r="C3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="2">
-        <v>15.99</v>
+      <c r="D3" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>90</v>
@@ -866,8 +878,8 @@
       <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="2">
-        <v>7.99</v>
+      <c r="D4" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>91</v>
@@ -883,8 +895,8 @@
       <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="2">
-        <v>15.99</v>
+      <c r="D5" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>92</v>
@@ -900,8 +912,8 @@
       <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="2">
-        <v>29.99</v>
+      <c r="D6" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>93</v>
@@ -917,8 +929,8 @@
       <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="2">
-        <v>49.99</v>
+      <c r="D7" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>94</v>
@@ -929,6 +941,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2:D7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -937,7 +953,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Inventory" sheetId="3" r:id="rId2"/>
-    <sheet name="Xpath" sheetId="2" r:id="rId3"/>
+    <sheet name="LoginFail" sheetId="4" r:id="rId2"/>
+    <sheet name="Inventory" sheetId="3" r:id="rId3"/>
+    <sheet name="Xpath" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
   <si>
     <t>User Name</t>
   </si>
@@ -343,6 +344,21 @@
   </si>
   <si>
     <t>$49.99</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>Lock Out User</t>
+  </si>
+  <si>
+    <t>Invalid User Name and Password</t>
+  </si>
+  <si>
+    <t>Missing Password</t>
+  </si>
+  <si>
+    <t>Missing Username</t>
   </si>
 </sst>
 </file>
@@ -706,7 +722,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -791,9 +807,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="57.6328125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -948,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
   <si>
     <t>User Name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>//input[@id = 'password']</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Login Button</t>
   </si>
   <si>
@@ -359,6 +356,15 @@
   </si>
   <si>
     <t>Missing Username</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Inventory Page</t>
+  </si>
+  <si>
+    <t>Buy Page</t>
   </si>
 </sst>
 </file>
@@ -719,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -756,45 +762,26 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -809,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -842,48 +829,48 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -898,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,138 +897,139 @@
     <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.36328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="35.90625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1055,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,236 +1056,386 @@
     <col min="3" max="16384" width="46.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="LoginFail" sheetId="4" r:id="rId2"/>
     <sheet name="Inventory" sheetId="3" r:id="rId3"/>
     <sheet name="Xpath" sheetId="2" r:id="rId4"/>
+    <sheet name="Other" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
   <si>
     <t>User Name</t>
   </si>
@@ -365,6 +366,75 @@
   </si>
   <si>
     <t>Buy Page</t>
+  </si>
+  <si>
+    <t>backpack</t>
+  </si>
+  <si>
+    <t>labs-bike-light</t>
+  </si>
+  <si>
+    <t>bolt-t-shirt</t>
+  </si>
+  <si>
+    <t>sauce-labs-onesie</t>
+  </si>
+  <si>
+    <t>fleece-jacket</t>
+  </si>
+  <si>
+    <t>test.allthethings()</t>
+  </si>
+  <si>
+    <t>Item Buy Name</t>
+  </si>
+  <si>
+    <t>Input Field</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Shin</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Total Price for Item 5</t>
+  </si>
+  <si>
+    <t>Total: $32.39</t>
+  </si>
+  <si>
+    <t>Compare URL About</t>
+  </si>
+  <si>
+    <t>https://saucelabs.com/</t>
+  </si>
+  <si>
+    <t>Compare Other</t>
+  </si>
+  <si>
+    <t>Compare Order header</t>
+  </si>
+  <si>
+    <t>THANK YOU FOR YOUR ORDER</t>
+  </si>
+  <si>
+    <t>Compare Your Cart Page</t>
+  </si>
+  <si>
+    <t>your cart</t>
   </si>
 </sst>
 </file>
@@ -409,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -419,6 +489,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -883,10 +957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,7 +975,7 @@
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -920,8 +994,11 @@
       <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -940,8 +1017,11 @@
       <c r="F2" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
@@ -960,8 +1040,11 @@
       <c r="F3" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="G3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
@@ -980,8 +1063,11 @@
       <c r="F4" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
@@ -997,8 +1083,11 @@
       <c r="F5" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
@@ -1014,8 +1103,11 @@
       <c r="F6" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="G6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
@@ -1030,6 +1122,9 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1043,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1177,12 +1272,6 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1197,12 +1286,6 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1217,12 +1300,6 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1237,12 +1314,6 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1257,12 +1328,6 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1277,12 +1342,6 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1297,148 +1356,114 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="5">
+        <v>700000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>